--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\JAVA-OO-2020-5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\JAVAOO\JAVA-OO-2020-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F5A2D3-35B0-4CE7-9820-370DF51A1715}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27559030-F1BE-409D-97EF-952B4EF0B255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>NRO</t>
   </si>
@@ -69,49 +69,67 @@
     <t>SAB 08-14 Horas</t>
   </si>
   <si>
-    <t>22.FEB.2020</t>
-  </si>
-  <si>
-    <t>29.FEB.2020</t>
-  </si>
-  <si>
-    <t>07.MAR.2020</t>
-  </si>
-  <si>
-    <t>ASTO RUPAY JOAQUIN RODRIGO</t>
-  </si>
-  <si>
-    <t>CARDOSO ALVITES PEDRO JOEL</t>
-  </si>
-  <si>
-    <t>CASTILLO RUIZ JULIO CESAR</t>
-  </si>
-  <si>
-    <t>CHAVEZ REBATTA JOSE ALEJANDRO</t>
-  </si>
-  <si>
-    <t>FELICES SANABRIA LISBETH</t>
-  </si>
-  <si>
-    <t>HEREDIA IDROGO GEINER ALEX</t>
-  </si>
-  <si>
-    <t>LOSTAUNAU YAYA AILTON ALEJANDRO</t>
-  </si>
-  <si>
-    <t>MELENDEZ MALCA MAYRA LORENA</t>
-  </si>
-  <si>
-    <t>MURRIETA MEZA DALE ALEJANDRO</t>
-  </si>
-  <si>
-    <t>RUIZ RUBIO MICHAEL MELANIO</t>
+    <t>ALBORNOZ MENDEZ WILLIAMS HECTOR</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO PACHECO ANGIE</t>
+  </si>
+  <si>
+    <t>ATUNCAR QUISPE MARISOL</t>
+  </si>
+  <si>
+    <t>Candela Cervantes Jonathan Steve</t>
+  </si>
+  <si>
+    <t>FLORES GUTIERREZ ALDER NICK</t>
+  </si>
+  <si>
+    <t>GIL ZULOETA CHRISTIAN JACK</t>
+  </si>
+  <si>
+    <t>JAQUE PAJUELO JUSCELLY NATIVIDAD</t>
+  </si>
+  <si>
+    <t>LACTAYO DE LA TORRE HERNAN JESUS</t>
+  </si>
+  <si>
+    <t>MELENDEZ ALVINAGORTA MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>MINAYA LEON HARRY JOHNNY</t>
+  </si>
+  <si>
+    <t>MONTES PEREZ PIERRE SAUL</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ RUIZ JOSE AMMON ALFONSO</t>
+  </si>
+  <si>
+    <t>Salazar Hizen Marco Antonio</t>
+  </si>
+  <si>
+    <t>TACUNA CALDERON LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>WONG SEBASTIAN NICOLAS LUIS</t>
+  </si>
+  <si>
+    <t>08.AGO.20</t>
+  </si>
+  <si>
+    <t>15.AGO.20</t>
+  </si>
+  <si>
+    <t>22.AGO.20</t>
+  </si>
+  <si>
+    <t>29.AGO.20</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>MONTALVAN ORELLANO RICARDO</t>
+    <t>HURTADO LARA SATURNINO</t>
   </si>
 </sst>
 </file>
@@ -642,13 +660,13 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
     <col min="3" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
@@ -724,16 +742,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,17 +759,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,14 +773,12 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
@@ -775,17 +787,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,17 +801,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -811,17 +815,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,17 +829,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -847,17 +843,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -865,17 +857,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -883,17 +871,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -901,17 +885,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -919,25 +899,25 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>12</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -946,8 +926,12 @@
       <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -956,8 +940,12 @@
       <c r="A22" s="3">
         <v>14</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -966,8 +954,12 @@
       <c r="A23" s="2">
         <v>15</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -976,8 +968,12 @@
       <c r="A24" s="2">
         <v>16</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\JAVAOO\JAVA-OO-2020-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27559030-F1BE-409D-97EF-952B4EF0B255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E66C4-EDA1-4D86-A695-E7BD6E4BA8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,7 +660,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\JAVAOO\JAVA-OO-2020-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E66C4-EDA1-4D86-A695-E7BD6E4BA8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76489361-28A7-483A-B561-E5A854935133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,15 +57,9 @@
     <t>Control de Asistencia</t>
   </si>
   <si>
-    <t>19.FEB.2020</t>
-  </si>
-  <si>
     <t>[S4-JAVPR] JAVA - PROGRAMACIÓN</t>
   </si>
   <si>
-    <t>15.FEB.2020</t>
-  </si>
-  <si>
     <t>SAB 08-14 Horas</t>
   </si>
   <si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>HURTADO LARA SATURNINO</t>
+  </si>
+  <si>
+    <t>08.AGO.2020</t>
+  </si>
+  <si>
+    <t>29.AGO.2020</t>
   </si>
 </sst>
 </file>
@@ -659,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +674,7 @@
     <row r="1" spans="1:6" ht="91.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -716,16 +716,16 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="11">
-        <v>202002</v>
+        <v>202008</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -742,16 +742,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,10 +759,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -773,10 +773,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -787,10 +787,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -801,10 +801,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -815,10 +815,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -829,10 +829,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -843,10 +843,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -857,10 +857,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -871,10 +871,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -885,10 +885,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -899,10 +899,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -913,10 +913,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -927,10 +927,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -941,10 +941,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -955,10 +955,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -969,10 +969,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -985,8 +985,9 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:F3"/>
   </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\JAVAOO\JAVA-OO-2020-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76489361-28A7-483A-B561-E5A854935133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5366164D-C0A4-4453-B24C-B612C8C31477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>NRO</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>29.AGO.2020</t>
+  </si>
+  <si>
+    <t>ATOCHE PASCUAL JEANCARLOS</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,6 +318,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -657,10 +663,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +770,9 @@
       <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
@@ -778,7 +786,9 @@
       <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
@@ -792,7 +802,9 @@
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
@@ -806,7 +818,9 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -820,7 +834,9 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
@@ -834,7 +850,9 @@
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
@@ -848,7 +866,9 @@
       <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
@@ -862,7 +882,9 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
@@ -876,7 +898,9 @@
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
@@ -890,7 +914,9 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
@@ -904,7 +930,9 @@
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
@@ -918,7 +946,9 @@
       <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
@@ -932,7 +962,9 @@
       <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
@@ -946,7 +978,9 @@
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
@@ -960,7 +994,9 @@
       <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
@@ -974,9 +1010,25 @@
       <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>17</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\JAVAOO\JAVA-OO-2020-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5366164D-C0A4-4453-B24C-B612C8C31477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE9E01A-43CF-40E7-AEAC-738FB84232F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t>NRO</t>
   </si>
@@ -72,9 +72,6 @@
     <t>ATUNCAR QUISPE MARISOL</t>
   </si>
   <si>
-    <t>Candela Cervantes Jonathan Steve</t>
-  </si>
-  <si>
     <t>FLORES GUTIERREZ ALDER NICK</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>RODRIGUEZ RUIZ JOSE AMMON ALFONSO</t>
   </si>
   <si>
-    <t>Salazar Hizen Marco Antonio</t>
-  </si>
-  <si>
     <t>TACUNA CALDERON LUIS ALBERTO</t>
   </si>
   <si>
@@ -132,7 +126,16 @@
     <t>29.AGO.2020</t>
   </si>
   <si>
-    <t>ATOCHE PASCUAL JEANCARLOS</t>
+    <t>CANDELA CERVANTES JONATHAN STEVE</t>
+  </si>
+  <si>
+    <t>SALAZAR HIZEN MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATOCHE PASCUAL JEANCARLOS </t>
   </si>
 </sst>
 </file>
@@ -308,6 +311,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,9 +324,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -665,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,30 +682,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="91.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -717,18 +720,18 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="11">
         <v>202008</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>10</v>
@@ -748,16 +751,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,12 +771,14 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,42 +789,46 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -829,45 +838,49 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -877,47 +890,53 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -925,31 +944,35 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -957,15 +980,17 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -973,15 +998,17 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -989,48 +1016,59 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>17</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="B25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:F25">
+    <sortCondition ref="B9:B25"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:B5"/>
@@ -1039,7 +1077,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\JAVAOO\JAVA-OO-2020-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE9E01A-43CF-40E7-AEAC-738FB84232F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C1DFB-913D-40D8-912C-C73024F1631E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>NRO</t>
   </si>
@@ -669,7 +669,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +830,9 @@
       <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -882,7 +884,9 @@
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\JAVAOO\JAVA-OO-2020-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C1DFB-913D-40D8-912C-C73024F1631E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBC9F7D-879F-4DAB-BEE0-AB4290495E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
   <si>
     <t>NRO</t>
   </si>
@@ -669,7 +669,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,9 @@
       <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -797,7 +799,9 @@
       <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -815,7 +819,9 @@
       <c r="E11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -851,7 +857,9 @@
       <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -869,7 +877,9 @@
       <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -905,7 +915,9 @@
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -923,7 +935,9 @@
       <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -941,7 +955,9 @@
       <c r="E18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -959,7 +975,9 @@
       <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -977,7 +995,9 @@
       <c r="E20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -995,7 +1015,9 @@
       <c r="E21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1013,7 +1035,9 @@
       <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -1031,7 +1055,9 @@
       <c r="E23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1049,7 +1075,9 @@
       <c r="E24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -1067,7 +1095,9 @@
       <c r="E25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:F25">
